--- a/medicine/Handicap/Foi_et_Lumière/Foi_et_Lumière.xlsx
+++ b/medicine/Handicap/Foi_et_Lumière/Foi_et_Lumière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Foi_et_Lumi%C3%A8re</t>
+          <t>Foi_et_Lumière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Foi et Lumière est une association chrétienne fondée en 1971. Elle regroupe des personnes ayant un handicap mental, leurs familles et amis. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Foi_et_Lumi%C3%A8re</t>
+          <t>Foi_et_Lumière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association internationale Foi et Lumière a été fondée en 1971[1]. Elle est œcuménique[2]. En 2011, elle compte plus de 50 000 membres dans 81 pays[3].
-Marie-Hélène Mathieu[4] avait déjà fondé l'Office chrétien des personnes handicapés et Jean Vanier  les communautés de l'Arche afin de partager la vie des personnes ayant un handicap mental. En réponse à l’appel des parents d'enfants ayant un handicap mental, ils organisent avec eux, en avril 1971, un pèlerinage à Lourdes. Des communautés locales se développent ensuite, regroupant de 15 à 40 personnes, pour partager des temps d'amitié, de célébrations et de prière[5],[6].
-En 2021, l'association compte 1 350 communautés dans 86 pays[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association internationale Foi et Lumière a été fondée en 1971. Elle est œcuménique. En 2011, elle compte plus de 50 000 membres dans 81 pays.
+Marie-Hélène Mathieu avait déjà fondé l'Office chrétien des personnes handicapés et Jean Vanier  les communautés de l'Arche afin de partager la vie des personnes ayant un handicap mental. En réponse à l’appel des parents d'enfants ayant un handicap mental, ils organisent avec eux, en avril 1971, un pèlerinage à Lourdes. Des communautés locales se développent ensuite, regroupant de 15 à 40 personnes, pour partager des temps d'amitié, de célébrations et de prière,.
+En 2021, l'association compte 1 350 communautés dans 86 pays.
 </t>
         </is>
       </c>
